--- a/analysis/Ramioul/raw_data/Ramioul.xlsx
+++ b/analysis/Ramioul/raw_data/Ramioul.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schunk\Documents\GitHub\Lithic_analysis_archaeology\analysis\Ramioul\raw_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="Ramioul" localSheetId="0">Tabelle1!$A$1:$AQ$21</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -194,9 +189,6 @@
     <t>R-006</t>
   </si>
   <si>
-    <t>Pradnick</t>
-  </si>
-  <si>
     <t>retouched</t>
   </si>
   <si>
@@ -218,9 +210,6 @@
     <t>R-010</t>
   </si>
   <si>
-    <t>Pradnick_scraper</t>
-  </si>
-  <si>
     <t>R-011</t>
   </si>
   <si>
@@ -236,9 +225,6 @@
     <t>R-014</t>
   </si>
   <si>
-    <t>clear_blunting</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
@@ -338,12 +324,6 @@
     <t>tip morphology</t>
   </si>
   <si>
-    <t>application pradnick method</t>
-  </si>
-  <si>
-    <t>frequency application pradnick method</t>
-  </si>
-  <si>
     <t>type lateral sharpening spall</t>
   </si>
   <si>
@@ -365,9 +345,6 @@
     <t>perimeter basis.back</t>
   </si>
   <si>
-    <t>perimeter arch</t>
-  </si>
-  <si>
     <t>perimeter active edge</t>
   </si>
   <si>
@@ -402,12 +379,27 @@
   </si>
   <si>
     <t>orientation schistosity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perimeter distal posterior part </t>
+  </si>
+  <si>
+    <t>application Pradnik method</t>
+  </si>
+  <si>
+    <t>frequency application Pradnik method</t>
+  </si>
+  <si>
+    <t>Pradnik</t>
+  </si>
+  <si>
+    <t>Pradnik_scraper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -719,7 +711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,189 +721,189 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>73</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>75</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>76</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>77</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>78</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>80</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>81</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" t="s">
         <v>82</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>83</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>84</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>85</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>86</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>90</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>91</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" t="s">
         <v>92</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" t="s">
         <v>93</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AL1" t="s">
         <v>95</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AM1" t="s">
         <v>96</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AN1" t="s">
         <v>97</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AO1" t="s">
         <v>98</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AP1" t="s">
         <v>99</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AQ1" t="s">
         <v>100</v>
       </c>
-      <c r="AL1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>106</v>
-      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1149,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1253,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1455,7 +1447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1490,7 +1482,7 @@
         <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="N7" t="s">
         <v>6</v>
@@ -1499,7 +1491,7 @@
         <v>13</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R7" t="s">
         <v>12</v>
@@ -1568,12 +1560,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -1588,7 +1580,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
@@ -1666,7 +1658,7 @@
         <v>21</v>
       </c>
       <c r="AI8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="s">
         <v>6</v>
@@ -1687,12 +1679,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -1806,12 +1798,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1889,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="s">
         <v>6</v>
@@ -1910,12 +1902,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -1930,13 +1922,13 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
         <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
         <v>9</v>
@@ -1951,7 +1943,7 @@
         <v>6</v>
       </c>
       <c r="Q11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R11" t="s">
         <v>12</v>
@@ -2023,12 +2015,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -2121,7 +2113,7 @@
         <v>16</v>
       </c>
       <c r="AI12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="s">
         <v>6</v>
@@ -2142,12 +2134,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -2240,12 +2232,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -2317,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AJ14" t="s">
         <v>6</v>
@@ -2338,12 +2330,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -2364,7 +2356,7 @@
         <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s">
         <v>9</v>
@@ -2379,7 +2371,7 @@
         <v>6</v>
       </c>
       <c r="Q15" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="R15" t="s">
         <v>12</v>
@@ -2391,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="U15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V15" t="s">
         <v>12</v>
@@ -2400,7 +2392,7 @@
         <v>18</v>
       </c>
       <c r="Y15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Z15">
         <v>48</v>
@@ -2451,12 +2443,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -2534,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AJ16" t="s">
         <v>6</v>
@@ -2555,12 +2547,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -2581,7 +2573,7 @@
         <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
         <v>9</v>
@@ -2596,7 +2588,7 @@
         <v>6</v>
       </c>
       <c r="Q17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="R17" t="s">
         <v>12</v>
@@ -2665,12 +2657,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -2679,7 +2671,7 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
@@ -2688,7 +2680,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
@@ -2742,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="AI18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="s">
         <v>6</v>
@@ -2763,12 +2755,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -2798,7 +2790,7 @@
         <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="N19" t="s">
         <v>12</v>
@@ -2807,7 +2799,7 @@
         <v>13</v>
       </c>
       <c r="P19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q19" t="s">
         <v>15</v>
@@ -2822,7 +2814,7 @@
         <v>5</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V19" t="s">
         <v>12</v>
@@ -2831,7 +2823,7 @@
         <v>18</v>
       </c>
       <c r="Y19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Z19">
         <v>78</v>
@@ -2861,7 +2853,7 @@
         <v>7</v>
       </c>
       <c r="AI19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AJ19" t="s">
         <v>6</v>
@@ -2882,12 +2874,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -2902,7 +2894,7 @@
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
         <v>7</v>
@@ -2929,7 +2921,7 @@
         <v>14</v>
       </c>
       <c r="Q20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R20" t="s">
         <v>12</v>
@@ -2947,7 +2939,7 @@
         <v>12</v>
       </c>
       <c r="W20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Y20" t="s">
         <v>19</v>
@@ -2980,7 +2972,7 @@
         <v>8</v>
       </c>
       <c r="AI20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="s">
         <v>6</v>
@@ -3001,12 +2993,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -3021,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
         <v>8</v>
@@ -3036,7 +3028,7 @@
         <v>33</v>
       </c>
       <c r="M21" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="N21" t="s">
         <v>12</v>
@@ -3099,7 +3091,7 @@
         <v>15</v>
       </c>
       <c r="AI21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AJ21" t="s">
         <v>6</v>
@@ -3122,5 +3114,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>